--- a/data/常量工作表示例.xlsx
+++ b/data/常量工作表示例.xlsx
@@ -4,43 +4,64 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="9285"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="TestConst" sheetId="3" r:id="rId1"/>
+    <sheet name="TestConsts" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>describe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Describe</t>
   </si>
   <si>
     <t>TEST_NUMBER</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>数值</t>
   </si>
   <si>
+    <t>TEST_BOOLEAN</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>浮点数</t>
+  </si>
+  <si>
     <t>TEST_STRING</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>abcdefg</t>
   </si>
   <si>
     <t>字符串</t>
   </si>
   <si>
-    <t>TEST_BOOLEAN</t>
+    <t>TEST_INTEGER</t>
   </si>
   <si>
     <t>1</t>
@@ -49,9 +70,21 @@
     <t>布尔值</t>
   </si>
   <si>
+    <t>TEST_FLOAT</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
     <t>TEST_ARRAY</t>
   </si>
   <si>
+    <t>[int]</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4, 5</t>
   </si>
   <si>
@@ -61,7 +94,10 @@
     <t>TEST_MAP</t>
   </si>
   <si>
-    <t>a = 1, b = 2, c = 3</t>
+    <t>{a=int,b=int,c=int}</t>
+  </si>
+  <si>
+    <t>1/2/3</t>
   </si>
   <si>
     <t>字典</t>
@@ -72,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,11 +122,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,38 +165,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,17 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +229,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -170,53 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,16 +265,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,25 +287,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,157 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -489,15 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,8 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +534,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +558,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,156 +590,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,6 +751,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1043,109 +1071,160 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
         <v>1001</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/常量工作表示例.xlsx
+++ b/data/常量工作表示例.xlsx
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,12 +123,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -136,32 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,46 +238,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,181 +287,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +505,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -524,7 +550,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,41 +559,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -587,16 +578,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
